--- a/recources/KeepThings Risk Management.xlsx
+++ b/recources/KeepThings Risk Management.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Risks" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Risk Name</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>regularly backing up the project</t>
+  </si>
+  <si>
+    <t>Team Member drops out</t>
+  </si>
+  <si>
+    <t>Team Member drops out of university</t>
+  </si>
+  <si>
+    <t>Remange ressources and discuss how to continue (maybe cut work)</t>
   </si>
 </sst>
 </file>
@@ -260,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -333,6 +342,27 @@
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,13 +384,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -546,6 +577,29 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -562,6 +616,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/recources/KeepThings Risk Management.xlsx
+++ b/recources/KeepThings Risk Management.xlsx
@@ -129,138 +129,12 @@
       <name val="Raleway"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA61C00"/>
-        <bgColor rgb="FFA61C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE69138"/>
-        <bgColor rgb="FFE69138"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
-        <bgColor rgb="FFF1C232"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45818E"/>
-        <bgColor rgb="FF45818E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C78D8"/>
-        <bgColor rgb="FF3C78D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D85C6"/>
-        <bgColor rgb="FF3D85C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF85200C"/>
-        <bgColor rgb="FF85200C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB45F06"/>
-        <bgColor rgb="FFB45F06"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
-        <bgColor rgb="FFBF9000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF134F5C"/>
-        <bgColor rgb="FF134F5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1155CC"/>
-        <bgColor rgb="FF1155CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor rgb="FF0B5394"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC4125"/>
-        <bgColor rgb="FFCC4125"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B26B"/>
-        <bgColor rgb="FFF6B26B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF76A5AF"/>
-        <bgColor rgb="FF76A5AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF6D9EEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -269,99 +143,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -411,192 +213,192 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="48.0" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="4">
         <v>0.01</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="3">
         <v>9.0</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="3">
         <v>0.09</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="4">
         <v>0.3</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="3">
         <v>3.0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="4">
         <v>0.25</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="3">
         <v>5.0</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="3">
         <v>1.25</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="4">
         <v>0.15</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="3">
         <v>9.0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="3">
         <v>1.35</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="4">
         <v>0.01</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="3">
         <v>10.0</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="3">
         <v>0.1</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="4">
         <v>0.05</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="3">
         <v>8.0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="3">
         <v>0.4</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="6">
         <v>0.1</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="7">
         <v>10.0</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="7">
         <v>1.0</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
